--- a/Completed Projects/BAF 10A Floor/087- Invoice for  HVAC rehabilitation work - BAF 10-A Floor.xlsx
+++ b/Completed Projects/BAF 10A Floor/087- Invoice for  HVAC rehabilitation work - BAF 10-A Floor.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3032ABB4-89F6-4D19-88D2-C1F7F52F56E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{973159DB-F0A4-4E5F-9A54-1A06DD26E1FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,15 +12,15 @@
     <sheet name="for working" sheetId="5" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">HVAC!$A$1:$H$34</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">HVAC!$17:$17</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">HVAC!$A$1:$H$33</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">HVAC!$14:$14</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="71">
   <si>
     <t>S. #</t>
   </si>
@@ -193,9 +193,6 @@
     <t>Total Amount Rs</t>
   </si>
   <si>
-    <t>SRB 13% on Labour</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Total after SRB </t>
   </si>
   <si>
@@ -227,6 +224,15 @@
   </si>
   <si>
     <t>PS/FTC/087/11/23</t>
+  </si>
+  <si>
+    <t>Net payable</t>
+  </si>
+  <si>
+    <t>SST 13% on Labour</t>
+  </si>
+  <si>
+    <t>Received from Civil contractor Rs</t>
   </si>
 </sst>
 </file>
@@ -234,8 +240,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -451,15 +457,15 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -491,13 +497,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -509,50 +515,50 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -567,12 +573,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -584,19 +590,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -691,13 +697,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>159527</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>564375</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>115394</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -739,16 +745,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>120059</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>6926</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1034459</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>92651</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>271462</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -765,7 +771,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="10949984" y="2178626"/>
+          <a:off x="1310684" y="283151"/>
           <a:ext cx="5052016" cy="655061"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -842,16 +848,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>465140</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>150815</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>174626</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>183266</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1079501</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>88016</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -875,7 +881,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="10075865" y="1952625"/>
+          <a:off x="427040" y="57150"/>
           <a:ext cx="928686" cy="792866"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -894,16 +900,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>314324</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>61915</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>219074</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>90490</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>457199</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>66677</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>695324</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>85727</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -932,7 +938,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9315449" y="10148890"/>
+          <a:off x="219074" y="10053640"/>
           <a:ext cx="752475" cy="595312"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1232,10 +1238,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A11:K35"/>
+  <dimension ref="A8:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1251,388 +1257,425 @@
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="55" t="s">
-        <v>68</v>
-      </c>
-      <c r="B11" s="55"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
-      <c r="H11" s="37" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="55" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A13" s="56" t="s">
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="H8" s="37" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A10" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="B13" s="56"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
-    </row>
-    <row r="14" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="54" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" s="54"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="54"/>
-    </row>
-    <row r="16" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="1:11" ht="47.25" x14ac:dyDescent="0.3">
-      <c r="A17" s="13" t="s">
+      <c r="B10" s="56"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="56"/>
+    </row>
+    <row r="11" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="54"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+    </row>
+    <row r="13" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:11" ht="47.25" x14ac:dyDescent="0.3">
+      <c r="A14" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B14" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C14" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="49" t="s">
+      <c r="D14" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E14" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="15" t="s">
+      <c r="F14" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="G17" s="15" t="s">
+      <c r="G14" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="H17" s="15" t="s">
+      <c r="H14" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="I17" s="9"/>
-    </row>
-    <row r="18" spans="1:11" ht="63" x14ac:dyDescent="0.25">
-      <c r="A18" s="45">
+      <c r="I14" s="9"/>
+    </row>
+    <row r="15" spans="1:11" ht="63" x14ac:dyDescent="0.25">
+      <c r="A15" s="45">
         <v>1</v>
       </c>
-      <c r="B18" s="46" t="s">
+      <c r="B15" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="45" t="s">
+      <c r="C15" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="47">
+      <c r="D15" s="47">
         <v>1</v>
       </c>
-      <c r="E18" s="48">
+      <c r="E15" s="48">
         <v>0</v>
       </c>
-      <c r="F18" s="48">
+      <c r="F15" s="48">
         <v>30000</v>
       </c>
-      <c r="G18" s="48">
-        <f>E18*D18</f>
+      <c r="G15" s="48">
+        <f>E15*D15</f>
         <v>0</v>
       </c>
-      <c r="H18" s="48">
-        <f>F18*D18</f>
+      <c r="H15" s="48">
+        <f>F15*D15</f>
         <v>30000</v>
       </c>
-      <c r="J18">
+      <c r="J15">
         <v>385000</v>
       </c>
-      <c r="K18">
-        <f>J18*1.18</f>
+      <c r="K15">
+        <f>J15*1.18</f>
         <v>454300</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="63" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="63" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
+        <v>2</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="40">
+        <v>486</v>
+      </c>
+      <c r="E16" s="16">
+        <v>470</v>
+      </c>
+      <c r="F16" s="16">
+        <v>70</v>
+      </c>
+      <c r="G16" s="16">
+        <f t="shared" ref="G16:G21" si="0">E16*D16</f>
+        <v>228420</v>
+      </c>
+      <c r="H16" s="16">
+        <f t="shared" ref="H16:H21" si="1">F16*D16</f>
+        <v>34020</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
+        <v>3</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="40">
+        <v>486</v>
+      </c>
+      <c r="E17" s="16">
+        <v>225</v>
+      </c>
+      <c r="F17" s="16">
+        <v>50</v>
+      </c>
+      <c r="G17" s="16">
+        <f t="shared" si="0"/>
+        <v>109350</v>
+      </c>
+      <c r="H17" s="16">
+        <f t="shared" si="1"/>
+        <v>24300</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
+        <v>4</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="40">
+        <v>8</v>
+      </c>
+      <c r="E18" s="16">
+        <v>4500</v>
+      </c>
+      <c r="F18" s="16">
+        <v>1000</v>
+      </c>
+      <c r="G18" s="16">
+        <f t="shared" si="0"/>
+        <v>36000</v>
+      </c>
+      <c r="H18" s="16">
+        <f t="shared" si="1"/>
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="D19" s="40">
-        <v>486</v>
+        <v>100</v>
       </c>
       <c r="E19" s="16">
-        <v>470</v>
+        <v>400</v>
       </c>
       <c r="F19" s="16">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="G19" s="16">
-        <f t="shared" ref="G19:G24" si="0">E19*D19</f>
-        <v>228420</v>
+        <f t="shared" si="0"/>
+        <v>40000</v>
       </c>
       <c r="H19" s="16">
-        <f t="shared" ref="H19:H24" si="1">F19*D19</f>
-        <v>34020</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="63" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="D20" s="40">
-        <v>486</v>
+        <v>1</v>
       </c>
       <c r="E20" s="16">
-        <v>225</v>
+        <v>0</v>
       </c>
       <c r="F20" s="16">
-        <v>50</v>
+        <v>15000</v>
       </c>
       <c r="G20" s="16">
         <f t="shared" si="0"/>
-        <v>109350</v>
+        <v>0</v>
       </c>
       <c r="H20" s="16">
         <f t="shared" si="1"/>
-        <v>24300</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D21" s="40">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E21" s="16">
-        <v>4500</v>
+        <v>20000</v>
       </c>
       <c r="F21" s="16">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="G21" s="16">
         <f t="shared" si="0"/>
-        <v>36000</v>
+        <v>20000</v>
       </c>
       <c r="H21" s="16">
         <f t="shared" si="1"/>
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D22" s="40">
-        <v>100</v>
-      </c>
-      <c r="E22" s="16">
-        <v>400</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E22" s="16"/>
       <c r="F22" s="16">
-        <v>100</v>
+        <v>20000</v>
       </c>
       <c r="G22" s="16">
-        <f t="shared" si="0"/>
-        <v>40000</v>
+        <f t="shared" ref="G22" si="2">E22*D22</f>
+        <v>0</v>
       </c>
       <c r="H22" s="16">
-        <f t="shared" si="1"/>
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="11">
-        <v>6</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="40">
-        <v>1</v>
-      </c>
-      <c r="E23" s="16">
+        <f t="shared" ref="H22" si="3">F22*D22</f>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="42" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="53"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="44">
+        <f>SUM(G15:G22)</f>
+        <v>433770</v>
+      </c>
+      <c r="H23" s="44">
+        <f>SUM(H15:H22)</f>
+        <v>151320</v>
+      </c>
+      <c r="I23" s="41"/>
+    </row>
+    <row r="24" spans="1:9" s="42" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A24" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="53"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="43">
         <v>0</v>
       </c>
-      <c r="F23" s="16">
-        <v>15000</v>
-      </c>
-      <c r="G23" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H23" s="16">
-        <f t="shared" si="1"/>
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="11">
-        <v>7</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="40">
-        <v>1</v>
-      </c>
-      <c r="E24" s="16">
-        <v>20000</v>
-      </c>
-      <c r="F24" s="16">
-        <v>10000</v>
-      </c>
-      <c r="G24" s="16">
-        <f t="shared" si="0"/>
-        <v>20000</v>
-      </c>
-      <c r="H24" s="16">
-        <f t="shared" si="1"/>
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="11">
-        <v>8</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="40">
-        <v>1</v>
-      </c>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16">
-        <v>20000</v>
-      </c>
-      <c r="G25" s="16">
-        <f t="shared" ref="G25" si="2">E25*D25</f>
-        <v>0</v>
-      </c>
-      <c r="H25" s="16">
-        <f t="shared" ref="H25" si="3">F25*D25</f>
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" s="42" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H24" s="43">
+        <f>H23*13%</f>
+        <v>19671.600000000002</v>
+      </c>
+      <c r="I24" s="41"/>
+    </row>
+    <row r="25" spans="1:9" s="42" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A25" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="53"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="50">
+        <f>G24+G23</f>
+        <v>433770</v>
+      </c>
+      <c r="H25" s="50">
+        <f>H24+H23</f>
+        <v>170991.6</v>
+      </c>
+      <c r="I25" s="41"/>
+    </row>
+    <row r="26" spans="1:9" s="42" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="53" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B26" s="53"/>
       <c r="C26" s="53"/>
       <c r="D26" s="53"/>
       <c r="E26" s="53"/>
       <c r="F26" s="53"/>
-      <c r="G26" s="44">
-        <f>SUM(G18:G25)</f>
-        <v>433770</v>
-      </c>
-      <c r="H26" s="44">
-        <f>SUM(H18:H25)</f>
-        <v>151320</v>
+      <c r="G26" s="51"/>
+      <c r="H26" s="52">
+        <f>H25+G25</f>
+        <v>604761.59999999998</v>
       </c>
       <c r="I26" s="41"/>
     </row>
-    <row r="27" spans="1:11" s="42" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" s="42" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="53" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="B27" s="53"/>
       <c r="C27" s="53"/>
       <c r="D27" s="53"/>
       <c r="E27" s="53"/>
       <c r="F27" s="53"/>
-      <c r="G27" s="43">
-        <v>0</v>
-      </c>
-      <c r="H27" s="43">
-        <f>H26*13%</f>
-        <v>19671.600000000002</v>
+      <c r="G27" s="51"/>
+      <c r="H27" s="52">
+        <v>200000</v>
       </c>
       <c r="I27" s="41"/>
     </row>
-    <row r="28" spans="1:11" s="42" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" s="42" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="53" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="B28" s="53"/>
       <c r="C28" s="53"/>
       <c r="D28" s="53"/>
       <c r="E28" s="53"/>
       <c r="F28" s="53"/>
-      <c r="G28" s="50">
-        <f>G27+G26</f>
-        <v>433770</v>
-      </c>
-      <c r="H28" s="50">
-        <f>H27+H26</f>
-        <v>170991.6</v>
+      <c r="G28" s="51"/>
+      <c r="H28" s="52">
+        <f>H26-H27</f>
+        <v>404761.59999999998</v>
       </c>
       <c r="I28" s="41"/>
     </row>
-    <row r="29" spans="1:11" s="42" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="53" t="s">
-        <v>59</v>
-      </c>
-      <c r="B29" s="53"/>
-      <c r="C29" s="53"/>
-      <c r="D29" s="53"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="51"/>
-      <c r="H29" s="52">
-        <f>H28+G28</f>
-        <v>604761.59999999998</v>
-      </c>
-      <c r="I29" s="41"/>
-    </row>
-    <row r="30" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A30" s="38" t="s">
+    <row r="29" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A29" s="38" t="s">
         <v>49</v>
       </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="2"/>
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="2"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
       <c r="C31" s="2"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="5"/>
       <c r="C32" s="2"/>
@@ -1640,32 +1683,28 @@
     </row>
     <row r="33" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
-      <c r="B33" s="5"/>
+      <c r="B33" s="4"/>
       <c r="C33" s="2"/>
       <c r="I33" s="1"/>
     </row>
     <row r="34" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
+      <c r="A34" s="6"/>
+      <c r="B34" s="7"/>
       <c r="C34" s="2"/>
       <c r="I34" s="1"/>
-    </row>
-    <row r="35" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="6"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="2"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="27"/>
+      <c r="J34" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
+    <mergeCell ref="A27:F27"/>
     <mergeCell ref="A28:F28"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="A25:F25"/>
     <mergeCell ref="A26:F26"/>
-    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A24:F24"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.2" right="0.2" top="0" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1708,7 +1747,7 @@
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I6" s="8">
         <f ca="1">TODAY()</f>
-        <v>45236</v>
+        <v>45624</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">

--- a/Completed Projects/BAF 10A Floor/087- Invoice for  HVAC rehabilitation work - BAF 10-A Floor.xlsx
+++ b/Completed Projects/BAF 10A Floor/087- Invoice for  HVAC rehabilitation work - BAF 10-A Floor.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{973159DB-F0A4-4E5F-9A54-1A06DD26E1FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A63BBAE-65C1-4C08-8994-53436FFE3AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,10 +12,10 @@
     <sheet name="for working" sheetId="5" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">HVAC!$A$1:$H$33</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">HVAC!$14:$14</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">HVAC!$A$1:$H$32</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">HVAC!$17:$17</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -220,19 +220,19 @@
     <t>Testing and commissioning</t>
   </si>
   <si>
-    <t>06 Nov 23</t>
-  </si>
-  <si>
-    <t>PS/FTC/087/11/23</t>
-  </si>
-  <si>
     <t>Net payable</t>
   </si>
   <si>
-    <t>SST 13% on Labour</t>
-  </si>
-  <si>
     <t>Received from Civil contractor Rs</t>
+  </si>
+  <si>
+    <t>20 Jan 25</t>
+  </si>
+  <si>
+    <t>PS/FTC/087/01/25</t>
+  </si>
+  <si>
+    <t>SST 15% on Labour</t>
   </si>
 </sst>
 </file>
@@ -697,13 +697,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>159527</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>564375</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>115394</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -745,16 +745,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1034459</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>92651</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>396284</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>16451</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -771,7 +771,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1310684" y="283151"/>
+          <a:off x="11835809" y="1349951"/>
           <a:ext cx="5052016" cy="655061"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -848,16 +848,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>150815</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>103190</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1079501</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>88016</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>422276</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>288041</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -881,7 +881,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="427040" y="57150"/>
+          <a:off x="10933115" y="1095375"/>
           <a:ext cx="928686" cy="792866"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -900,16 +900,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>219074</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>90490</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>419099</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>176215</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>695324</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>85727</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>561974</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>9527</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -938,7 +938,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="219074" y="10053640"/>
+          <a:off x="11858624" y="10758490"/>
           <a:ext cx="752475" cy="595312"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1238,10 +1238,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A8:K34"/>
+  <dimension ref="A11:K37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:F28"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1257,374 +1257,321 @@
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="55" t="s">
-        <v>67</v>
-      </c>
-      <c r="B8" s="55"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="H8" s="37" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A10" s="56" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="55"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+      <c r="H11" s="37" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A13" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="56"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="56"/>
-    </row>
-    <row r="11" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="54" t="s">
+      <c r="B13" s="56"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+    </row>
+    <row r="14" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="B12" s="54"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
-    </row>
-    <row r="13" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:11" ht="47.25" x14ac:dyDescent="0.3">
-      <c r="A14" s="13" t="s">
+      <c r="B15" s="54"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
+    </row>
+    <row r="16" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:11" ht="47.25" x14ac:dyDescent="0.3">
+      <c r="A17" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B17" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C17" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="49" t="s">
+      <c r="D17" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E17" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="15" t="s">
+      <c r="F17" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="15" t="s">
+      <c r="G17" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="H14" s="15" t="s">
+      <c r="H17" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="I14" s="9"/>
-    </row>
-    <row r="15" spans="1:11" ht="63" x14ac:dyDescent="0.25">
-      <c r="A15" s="45">
+      <c r="I17" s="9"/>
+    </row>
+    <row r="18" spans="1:11" ht="63" x14ac:dyDescent="0.25">
+      <c r="A18" s="45">
         <v>1</v>
       </c>
-      <c r="B15" s="46" t="s">
+      <c r="B18" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="45" t="s">
+      <c r="C18" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="47">
+      <c r="D18" s="47">
         <v>1</v>
       </c>
-      <c r="E15" s="48">
+      <c r="E18" s="48">
         <v>0</v>
       </c>
-      <c r="F15" s="48">
+      <c r="F18" s="48">
         <v>30000</v>
       </c>
-      <c r="G15" s="48">
-        <f>E15*D15</f>
+      <c r="G18" s="48">
+        <f>E18*D18</f>
         <v>0</v>
       </c>
-      <c r="H15" s="48">
-        <f>F15*D15</f>
+      <c r="H18" s="48">
+        <f>F18*D18</f>
         <v>30000</v>
       </c>
-      <c r="J15">
+      <c r="J18">
         <v>385000</v>
       </c>
-      <c r="K15">
-        <f>J15*1.18</f>
+      <c r="K18">
+        <f>J18*1.18</f>
         <v>454300</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="63" x14ac:dyDescent="0.25">
-      <c r="A16" s="11">
+    <row r="19" spans="1:11" ht="63" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
         <v>2</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B19" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C19" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="40">
+      <c r="D19" s="40">
         <v>486</v>
       </c>
-      <c r="E16" s="16">
+      <c r="E19" s="16">
         <v>470</v>
       </c>
-      <c r="F16" s="16">
+      <c r="F19" s="16">
         <v>70</v>
       </c>
-      <c r="G16" s="16">
-        <f t="shared" ref="G16:G21" si="0">E16*D16</f>
+      <c r="G19" s="16">
+        <f t="shared" ref="G19:G24" si="0">E19*D19</f>
         <v>228420</v>
       </c>
-      <c r="H16" s="16">
-        <f t="shared" ref="H16:H21" si="1">F16*D16</f>
+      <c r="H19" s="16">
+        <f t="shared" ref="H19:H24" si="1">F19*D19</f>
         <v>34020</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="63" x14ac:dyDescent="0.25">
-      <c r="A17" s="11">
+    <row r="20" spans="1:11" ht="63" x14ac:dyDescent="0.25">
+      <c r="A20" s="11">
         <v>3</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B20" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C20" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="40">
+      <c r="D20" s="40">
         <v>486</v>
       </c>
-      <c r="E17" s="16">
+      <c r="E20" s="16">
         <v>225</v>
       </c>
-      <c r="F17" s="16">
+      <c r="F20" s="16">
         <v>50</v>
       </c>
-      <c r="G17" s="16">
+      <c r="G20" s="16">
         <f t="shared" si="0"/>
         <v>109350</v>
       </c>
-      <c r="H17" s="16">
+      <c r="H20" s="16">
         <f t="shared" si="1"/>
         <v>24300</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="11">
+    <row r="21" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="11">
         <v>4</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B21" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C21" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="40">
+      <c r="D21" s="40">
         <v>8</v>
       </c>
-      <c r="E18" s="16">
+      <c r="E21" s="16">
         <v>4500</v>
       </c>
-      <c r="F18" s="16">
+      <c r="F21" s="16">
         <v>1000</v>
       </c>
-      <c r="G18" s="16">
+      <c r="G21" s="16">
         <f t="shared" si="0"/>
         <v>36000</v>
       </c>
-      <c r="H18" s="16">
+      <c r="H21" s="16">
         <f t="shared" si="1"/>
         <v>8000</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="11">
+    <row r="22" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="11">
         <v>5</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B22" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C22" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="40">
+      <c r="D22" s="40">
         <v>100</v>
       </c>
-      <c r="E19" s="16">
+      <c r="E22" s="16">
         <v>400</v>
       </c>
-      <c r="F19" s="16">
+      <c r="F22" s="16">
         <v>100</v>
       </c>
-      <c r="G19" s="16">
+      <c r="G22" s="16">
         <f t="shared" si="0"/>
         <v>40000</v>
       </c>
-      <c r="H19" s="16">
+      <c r="H22" s="16">
         <f t="shared" si="1"/>
         <v>10000</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="11">
+    <row r="23" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="11">
         <v>6</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B23" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C23" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="40">
+      <c r="D23" s="40">
         <v>1</v>
       </c>
-      <c r="E20" s="16">
+      <c r="E23" s="16">
         <v>0</v>
       </c>
-      <c r="F20" s="16">
+      <c r="F23" s="16">
         <v>15000</v>
       </c>
-      <c r="G20" s="16">
+      <c r="G23" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H20" s="16">
+      <c r="H23" s="16">
         <f t="shared" si="1"/>
         <v>15000</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="11">
+    <row r="24" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
         <v>7</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B24" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C24" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="40">
+      <c r="D24" s="40">
         <v>1</v>
       </c>
-      <c r="E21" s="16">
+      <c r="E24" s="16">
         <v>20000</v>
       </c>
-      <c r="F21" s="16">
+      <c r="F24" s="16">
         <v>10000</v>
       </c>
-      <c r="G21" s="16">
+      <c r="G24" s="16">
         <f t="shared" si="0"/>
         <v>20000</v>
       </c>
-      <c r="H21" s="16">
+      <c r="H24" s="16">
         <f t="shared" si="1"/>
         <v>10000</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="11">
+    <row r="25" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="11">
         <v>8</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B25" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C25" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="40">
+      <c r="D25" s="40">
         <v>1</v>
       </c>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16">
+      <c r="E25" s="16"/>
+      <c r="F25" s="16">
         <v>20000</v>
       </c>
-      <c r="G22" s="16">
-        <f t="shared" ref="G22" si="2">E22*D22</f>
+      <c r="G25" s="16">
+        <f t="shared" ref="G25" si="2">E25*D25</f>
         <v>0</v>
       </c>
-      <c r="H22" s="16">
-        <f t="shared" ref="H22" si="3">F22*D22</f>
+      <c r="H25" s="16">
+        <f t="shared" ref="H25" si="3">F25*D25</f>
         <v>20000</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="42" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="53" t="s">
+    <row r="26" spans="1:11" s="42" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A26" s="53" t="s">
         <v>56</v>
-      </c>
-      <c r="B23" s="53"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="44">
-        <f>SUM(G15:G22)</f>
-        <v>433770</v>
-      </c>
-      <c r="H23" s="44">
-        <f>SUM(H15:H22)</f>
-        <v>151320</v>
-      </c>
-      <c r="I23" s="41"/>
-    </row>
-    <row r="24" spans="1:9" s="42" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="B24" s="53"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="43">
-        <v>0</v>
-      </c>
-      <c r="H24" s="43">
-        <f>H23*13%</f>
-        <v>19671.600000000002</v>
-      </c>
-      <c r="I24" s="41"/>
-    </row>
-    <row r="25" spans="1:9" s="42" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="53" t="s">
-        <v>57</v>
-      </c>
-      <c r="B25" s="53"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="50">
-        <f>G24+G23</f>
-        <v>433770</v>
-      </c>
-      <c r="H25" s="50">
-        <f>H24+H23</f>
-        <v>170991.6</v>
-      </c>
-      <c r="I25" s="41"/>
-    </row>
-    <row r="26" spans="1:9" s="42" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="53" t="s">
-        <v>58</v>
       </c>
       <c r="B26" s="53"/>
       <c r="C26" s="53"/>
       <c r="D26" s="53"/>
       <c r="E26" s="53"/>
       <c r="F26" s="53"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="52">
-        <f>H25+G25</f>
-        <v>604761.59999999998</v>
+      <c r="G26" s="44">
+        <f>SUM(G18:G25)</f>
+        <v>433770</v>
+      </c>
+      <c r="H26" s="44">
+        <f>SUM(H18:H25)</f>
+        <v>151320</v>
       </c>
       <c r="I26" s="41"/>
     </row>
-    <row r="27" spans="1:9" s="42" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" s="42" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="53" t="s">
         <v>70</v>
       </c>
@@ -1633,78 +1580,131 @@
       <c r="D27" s="53"/>
       <c r="E27" s="53"/>
       <c r="F27" s="53"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="52">
-        <v>200000</v>
+      <c r="G27" s="43">
+        <v>0</v>
+      </c>
+      <c r="H27" s="43">
+        <f>H26*15%</f>
+        <v>22698</v>
       </c>
       <c r="I27" s="41"/>
     </row>
-    <row r="28" spans="1:9" s="42" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" s="42" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="53" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="B28" s="53"/>
       <c r="C28" s="53"/>
       <c r="D28" s="53"/>
       <c r="E28" s="53"/>
       <c r="F28" s="53"/>
-      <c r="G28" s="51"/>
-      <c r="H28" s="52">
-        <f>H26-H27</f>
-        <v>404761.59999999998</v>
+      <c r="G28" s="50">
+        <f>G27+G26</f>
+        <v>433770</v>
+      </c>
+      <c r="H28" s="50">
+        <f>H27+H26</f>
+        <v>174018</v>
       </c>
       <c r="I28" s="41"/>
     </row>
-    <row r="29" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A29" s="38" t="s">
+    <row r="29" spans="1:11" s="42" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A29" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="53"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="51"/>
+      <c r="H29" s="52">
+        <f>H28+G28</f>
+        <v>607788</v>
+      </c>
+      <c r="I29" s="41"/>
+    </row>
+    <row r="30" spans="1:11" s="42" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A30" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="B30" s="53"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="51"/>
+      <c r="H30" s="52">
+        <v>200000</v>
+      </c>
+      <c r="I30" s="41"/>
+    </row>
+    <row r="31" spans="1:11" s="42" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A31" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" s="53"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="52">
+        <f>H29-H30</f>
+        <v>407788</v>
+      </c>
+      <c r="I31" s="41"/>
+    </row>
+    <row r="32" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A32" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="2"/>
-      <c r="I29" s="1"/>
-    </row>
-    <row r="30" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="2"/>
-      <c r="I30" s="1"/>
-    </row>
-    <row r="31" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="2"/>
-      <c r="I31" s="1"/>
-    </row>
-    <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
       <c r="B32" s="5"/>
       <c r="C32" s="2"/>
       <c r="I32" s="1"/>
     </row>
     <row r="33" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
+      <c r="B33" s="5"/>
       <c r="C33" s="2"/>
       <c r="I33" s="1"/>
     </row>
     <row r="34" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
-      <c r="B34" s="7"/>
+      <c r="A34" s="4"/>
+      <c r="B34" s="5"/>
       <c r="C34" s="2"/>
       <c r="I34" s="1"/>
-      <c r="J34" s="27"/>
+    </row>
+    <row r="35" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="2"/>
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="2"/>
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="6"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="2"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="A26:F26"/>
     <mergeCell ref="A27:F27"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="A31:F31"/>
     <mergeCell ref="A28:F28"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="A15:H15"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.2" right="0.2" top="0" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1747,7 +1747,7 @@
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I6" s="8">
         <f ca="1">TODAY()</f>
-        <v>45624</v>
+        <v>45677</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
